--- a/database/tiktok_russia_ukraine_max_1_min.xlsx
+++ b/database/tiktok_russia_ukraine_max_1_min.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/ou/IM9506-AF/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFBB4F3-0DF2-DA43-AEA8-3E5F6A48B261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9879CDB8-E7FB-944E-B59E-04E39E40B797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4007,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="H178" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10642,7 +10642,7 @@
         <v>1079</v>
       </c>
       <c r="K179" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="L179" t="s">
         <v>1199</v>
